--- a/FileDownload/FileDownload/Template/English.xlsx
+++ b/FileDownload/FileDownload/Template/English.xlsx
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/FileDownload/FileDownload/Template/English.xlsx
+++ b/FileDownload/FileDownload/Template/English.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="31">
   <si>
     <t>序号</t>
   </si>
@@ -126,79 +126,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2007.10.10</t>
-  </si>
-  <si>
-    <t>2007.10.10</t>
+    <t>李皖悦</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ww</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2004.9.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009.6.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005.5.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007.6.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009.12.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007.10.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008.5.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007.9.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李皖悦</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008.9.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2009.6.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008.5.4</t>
-  </si>
-  <si>
-    <t>2008.5.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2008.11.17</t>
-  </si>
-  <si>
-    <t>2008.9.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006.9.17</t>
-  </si>
-  <si>
-    <t>2007.5.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006.11.3</t>
+    <t>q</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -610,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,287 +567,289 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
-        <v>38808</v>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>41</v>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
-        <v>39934</v>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>2008.4</v>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>46</v>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>39</v>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <v>2008.4</v>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>42</v>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>36</v>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>43</v>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
-        <v>31</v>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="str">
-        <f>+C20</f>
-        <v>2007.6.3</v>
+      <c r="C25" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>34</v>
+      <c r="C27" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
